--- a/ut3/PDs/UT03-TA1/UT3-TA1.xlsx
+++ b/ut3/PDs/UT03-TA1/UT3-TA1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Federico\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6C61FE-833D-48CC-BDFA-B3588A2F1220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94B683BB-7F5E-4D04-BBAD-D9FC311754F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{1FF1BBC3-D289-4B94-BAFE-9A492678760C}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>X</t>
   </si>
@@ -103,6 +103,12 @@
   <si>
     <t>alpha</t>
   </si>
+  <si>
+    <t>x`</t>
+  </si>
+  <si>
+    <t>iteración</t>
+  </si>
 </sst>
 </file>
 
@@ -125,10 +131,39 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -137,9 +172,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -989,7 +1033,364 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-UY"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ej2'!$J$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RMSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'ej2'!$I$14:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ej2'!$J$14:$J$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.3195240391401568</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5045212661287681</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4119882700137136</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4076245764674005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-99F0-4802-806D-A3CC1AE80311}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1363014096"/>
+        <c:axId val="1363014928"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1363014096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-UY"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1363014928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1363014928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-UY"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1363014096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-UY"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1545,6 +1946,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1566,6 +2483,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8489242B-653A-488C-B79F-D6E0B204961F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4483</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>309283</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>31377</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A907FA8-7852-4D7D-AA13-89CFEE1DBED1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1931,7 +2889,7 @@
         <v>-1.6666666666666665</v>
       </c>
       <c r="E2">
-        <f>$B$13+$B$14*A2</f>
+        <f t="shared" ref="E2:E7" si="0">$B$13+$B$14*A2</f>
         <v>1.8095238095238093</v>
       </c>
       <c r="F2" cm="1">
@@ -1955,7 +2913,7 @@
         <v>-0.66666666666666652</v>
       </c>
       <c r="E3">
-        <f>$B$13+$B$14*A3</f>
+        <f t="shared" si="0"/>
         <v>2.4952380952380953</v>
       </c>
     </row>
@@ -1975,7 +2933,7 @@
         <v>0.33333333333333348</v>
       </c>
       <c r="E4">
-        <f>$B$13+$B$14*A4</f>
+        <f t="shared" si="0"/>
         <v>2.1523809523809523</v>
       </c>
     </row>
@@ -1987,15 +2945,15 @@
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C7" si="0">A5-$B$9</f>
+        <f t="shared" ref="C5:C7" si="1">A5-$B$9</f>
         <v>0.5</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:D7" si="1">B5-$B$10</f>
+        <f t="shared" ref="D5:D7" si="2">B5-$B$10</f>
         <v>0.33333333333333348</v>
       </c>
       <c r="E5">
-        <f>$B$13+$B$14*A5</f>
+        <f t="shared" si="0"/>
         <v>2.8380952380952378</v>
       </c>
     </row>
@@ -2007,15 +2965,15 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.66666666666666652</v>
+      </c>
+      <c r="E6">
         <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" si="1"/>
-        <v>-0.66666666666666652</v>
-      </c>
-      <c r="E6">
-        <f>$B$13+$B$14*A6</f>
         <v>3.5238095238095237</v>
       </c>
     </row>
@@ -2027,15 +2985,15 @@
         <v>5</v>
       </c>
       <c r="C7" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="2"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" si="1"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="E7">
-        <f>$B$13+$B$14*A7</f>
         <v>3.1809523809523812</v>
       </c>
     </row>
@@ -2105,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <f>$B$13+B18*$B$14</f>
+        <f t="shared" ref="C18:C49" si="3">$B$13+B18*$B$14</f>
         <v>1.4666666666666666</v>
       </c>
     </row>
@@ -2114,7 +3072,7 @@
         <v>0.1</v>
       </c>
       <c r="C19">
-        <f>$B$13+B19*$B$14</f>
+        <f t="shared" si="3"/>
         <v>1.5009523809523808</v>
       </c>
     </row>
@@ -2123,7 +3081,7 @@
         <v>0.2</v>
       </c>
       <c r="C20">
-        <f>$B$13+B20*$B$14</f>
+        <f t="shared" si="3"/>
         <v>1.5352380952380951</v>
       </c>
     </row>
@@ -2132,7 +3090,7 @@
         <v>0.3</v>
       </c>
       <c r="C21">
-        <f>$B$13+B21*$B$14</f>
+        <f t="shared" si="3"/>
         <v>1.5695238095238093</v>
       </c>
     </row>
@@ -2141,7 +3099,7 @@
         <v>0.4</v>
       </c>
       <c r="C22">
-        <f>$B$13+B22*$B$14</f>
+        <f t="shared" si="3"/>
         <v>1.6038095238095238</v>
       </c>
     </row>
@@ -2150,7 +3108,7 @@
         <v>0.5</v>
       </c>
       <c r="C23">
-        <f>$B$13+B23*$B$14</f>
+        <f t="shared" si="3"/>
         <v>1.638095238095238</v>
       </c>
     </row>
@@ -2159,7 +3117,7 @@
         <v>0.6</v>
       </c>
       <c r="C24">
-        <f>$B$13+B24*$B$14</f>
+        <f t="shared" si="3"/>
         <v>1.6723809523809523</v>
       </c>
     </row>
@@ -2168,7 +3126,7 @@
         <v>0.7</v>
       </c>
       <c r="C25">
-        <f>$B$13+B25*$B$14</f>
+        <f t="shared" si="3"/>
         <v>1.7066666666666666</v>
       </c>
     </row>
@@ -2177,7 +3135,7 @@
         <v>0.8</v>
       </c>
       <c r="C26">
-        <f>$B$13+B26*$B$14</f>
+        <f t="shared" si="3"/>
         <v>1.7409523809523808</v>
       </c>
     </row>
@@ -2186,7 +3144,7 @@
         <v>0.9</v>
       </c>
       <c r="C27">
-        <f>$B$13+B27*$B$14</f>
+        <f t="shared" si="3"/>
         <v>1.7752380952380951</v>
       </c>
     </row>
@@ -2195,7 +3153,7 @@
         <v>1</v>
       </c>
       <c r="C28">
-        <f>$B$13+B28*$B$14</f>
+        <f t="shared" si="3"/>
         <v>1.8095238095238093</v>
       </c>
     </row>
@@ -2204,7 +3162,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C29">
-        <f>$B$13+B29*$B$14</f>
+        <f t="shared" si="3"/>
         <v>1.8438095238095238</v>
       </c>
     </row>
@@ -2213,7 +3171,7 @@
         <v>1.2</v>
       </c>
       <c r="C30">
-        <f>$B$13+B30*$B$14</f>
+        <f t="shared" si="3"/>
         <v>1.878095238095238</v>
       </c>
     </row>
@@ -2222,7 +3180,7 @@
         <v>1.3</v>
       </c>
       <c r="C31">
-        <f>$B$13+B31*$B$14</f>
+        <f t="shared" si="3"/>
         <v>1.9123809523809523</v>
       </c>
     </row>
@@ -2231,7 +3189,7 @@
         <v>1.4</v>
       </c>
       <c r="C32">
-        <f>$B$13+B32*$B$14</f>
+        <f t="shared" si="3"/>
         <v>1.9466666666666665</v>
       </c>
     </row>
@@ -2240,7 +3198,7 @@
         <v>1.5</v>
       </c>
       <c r="C33">
-        <f>$B$13+B33*$B$14</f>
+        <f t="shared" si="3"/>
         <v>1.9809523809523808</v>
       </c>
     </row>
@@ -2249,7 +3207,7 @@
         <v>1.6</v>
       </c>
       <c r="C34">
-        <f>$B$13+B34*$B$14</f>
+        <f t="shared" si="3"/>
         <v>2.0152380952380953</v>
       </c>
     </row>
@@ -2258,7 +3216,7 @@
         <v>1.7</v>
       </c>
       <c r="C35">
-        <f>$B$13+B35*$B$14</f>
+        <f t="shared" si="3"/>
         <v>2.0495238095238095</v>
       </c>
     </row>
@@ -2267,7 +3225,7 @@
         <v>1.8</v>
       </c>
       <c r="C36">
-        <f>$B$13+B36*$B$14</f>
+        <f t="shared" si="3"/>
         <v>2.0838095238095238</v>
       </c>
     </row>
@@ -2276,7 +3234,7 @@
         <v>1.9</v>
       </c>
       <c r="C37">
-        <f>$B$13+B37*$B$14</f>
+        <f t="shared" si="3"/>
         <v>2.118095238095238</v>
       </c>
     </row>
@@ -2285,7 +3243,7 @@
         <v>2</v>
       </c>
       <c r="C38">
-        <f>$B$13+B38*$B$14</f>
+        <f t="shared" si="3"/>
         <v>2.1523809523809523</v>
       </c>
     </row>
@@ -2294,7 +3252,7 @@
         <v>2.1</v>
       </c>
       <c r="C39">
-        <f>$B$13+B39*$B$14</f>
+        <f t="shared" si="3"/>
         <v>2.1866666666666665</v>
       </c>
     </row>
@@ -2303,7 +3261,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C40">
-        <f>$B$13+B40*$B$14</f>
+        <f t="shared" si="3"/>
         <v>2.2209523809523808</v>
       </c>
     </row>
@@ -2312,7 +3270,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C41">
-        <f>$B$13+B41*$B$14</f>
+        <f t="shared" si="3"/>
         <v>2.255238095238095</v>
       </c>
     </row>
@@ -2321,7 +3279,7 @@
         <v>2.4</v>
       </c>
       <c r="C42">
-        <f>$B$13+B42*$B$14</f>
+        <f t="shared" si="3"/>
         <v>2.2895238095238093</v>
       </c>
     </row>
@@ -2330,7 +3288,7 @@
         <v>2.5</v>
       </c>
       <c r="C43">
-        <f>$B$13+B43*$B$14</f>
+        <f t="shared" si="3"/>
         <v>2.3238095238095235</v>
       </c>
     </row>
@@ -2339,7 +3297,7 @@
         <v>2.6</v>
       </c>
       <c r="C44">
-        <f>$B$13+B44*$B$14</f>
+        <f t="shared" si="3"/>
         <v>2.3580952380952382</v>
       </c>
     </row>
@@ -2348,7 +3306,7 @@
         <v>2.7</v>
       </c>
       <c r="C45">
-        <f>$B$13+B45*$B$14</f>
+        <f t="shared" si="3"/>
         <v>2.3923809523809525</v>
       </c>
     </row>
@@ -2357,7 +3315,7 @@
         <v>2.8</v>
       </c>
       <c r="C46">
-        <f>$B$13+B46*$B$14</f>
+        <f t="shared" si="3"/>
         <v>2.4266666666666667</v>
       </c>
     </row>
@@ -2366,7 +3324,7 @@
         <v>2.9</v>
       </c>
       <c r="C47">
-        <f>$B$13+B47*$B$14</f>
+        <f t="shared" si="3"/>
         <v>2.4609523809523806</v>
       </c>
     </row>
@@ -2375,7 +3333,7 @@
         <v>3</v>
       </c>
       <c r="C48">
-        <f>$B$13+B48*$B$14</f>
+        <f t="shared" si="3"/>
         <v>2.4952380952380953</v>
       </c>
     </row>
@@ -2384,7 +3342,7 @@
         <v>3.1</v>
       </c>
       <c r="C49">
-        <f>$B$13+B49*$B$14</f>
+        <f t="shared" si="3"/>
         <v>2.5295238095238095</v>
       </c>
     </row>
@@ -2393,7 +3351,7 @@
         <v>3.2</v>
       </c>
       <c r="C50">
-        <f>$B$13+B50*$B$14</f>
+        <f t="shared" ref="C50:C81" si="4">$B$13+B50*$B$14</f>
         <v>2.5638095238095238</v>
       </c>
     </row>
@@ -2402,7 +3360,7 @@
         <v>3.3</v>
       </c>
       <c r="C51">
-        <f>$B$13+B51*$B$14</f>
+        <f t="shared" si="4"/>
         <v>2.598095238095238</v>
       </c>
     </row>
@@ -2411,7 +3369,7 @@
         <v>3.4</v>
       </c>
       <c r="C52">
-        <f>$B$13+B52*$B$14</f>
+        <f t="shared" si="4"/>
         <v>2.6323809523809523</v>
       </c>
     </row>
@@ -2420,7 +3378,7 @@
         <v>3.5</v>
       </c>
       <c r="C53">
-        <f>$B$13+B53*$B$14</f>
+        <f t="shared" si="4"/>
         <v>2.6666666666666665</v>
       </c>
     </row>
@@ -2429,7 +3387,7 @@
         <v>3.6</v>
       </c>
       <c r="C54">
-        <f>$B$13+B54*$B$14</f>
+        <f t="shared" si="4"/>
         <v>2.7009523809523808</v>
       </c>
     </row>
@@ -2438,7 +3396,7 @@
         <v>3.7</v>
       </c>
       <c r="C55">
-        <f>$B$13+B55*$B$14</f>
+        <f t="shared" si="4"/>
         <v>2.7352380952380955</v>
       </c>
     </row>
@@ -2447,7 +3405,7 @@
         <v>3.8</v>
       </c>
       <c r="C56">
-        <f>$B$13+B56*$B$14</f>
+        <f t="shared" si="4"/>
         <v>2.7695238095238093</v>
       </c>
     </row>
@@ -2456,7 +3414,7 @@
         <v>3.9</v>
       </c>
       <c r="C57">
-        <f>$B$13+B57*$B$14</f>
+        <f t="shared" si="4"/>
         <v>2.803809523809524</v>
       </c>
     </row>
@@ -2465,7 +3423,7 @@
         <v>4</v>
       </c>
       <c r="C58">
-        <f>$B$13+B58*$B$14</f>
+        <f t="shared" si="4"/>
         <v>2.8380952380952378</v>
       </c>
     </row>
@@ -2474,7 +3432,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C59">
-        <f>$B$13+B59*$B$14</f>
+        <f t="shared" si="4"/>
         <v>2.8723809523809525</v>
       </c>
     </row>
@@ -2483,7 +3441,7 @@
         <v>4.2</v>
       </c>
       <c r="C60">
-        <f>$B$13+B60*$B$14</f>
+        <f t="shared" si="4"/>
         <v>2.9066666666666667</v>
       </c>
     </row>
@@ -2492,7 +3450,7 @@
         <v>4.3</v>
       </c>
       <c r="C61">
-        <f>$B$13+B61*$B$14</f>
+        <f t="shared" si="4"/>
         <v>2.940952380952381</v>
       </c>
     </row>
@@ -2501,7 +3459,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="C62">
-        <f>$B$13+B62*$B$14</f>
+        <f t="shared" si="4"/>
         <v>2.9752380952380952</v>
       </c>
     </row>
@@ -2510,7 +3468,7 @@
         <v>4.5</v>
       </c>
       <c r="C63">
-        <f>$B$13+B63*$B$14</f>
+        <f t="shared" si="4"/>
         <v>3.0095238095238095</v>
       </c>
     </row>
@@ -2519,7 +3477,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="C64">
-        <f>$B$13+B64*$B$14</f>
+        <f t="shared" si="4"/>
         <v>3.0438095238095233</v>
       </c>
     </row>
@@ -2528,7 +3486,7 @@
         <v>4.7</v>
       </c>
       <c r="C65">
-        <f>$B$13+B65*$B$14</f>
+        <f t="shared" si="4"/>
         <v>3.078095238095238</v>
       </c>
     </row>
@@ -2537,7 +3495,7 @@
         <v>4.8</v>
       </c>
       <c r="C66">
-        <f>$B$13+B66*$B$14</f>
+        <f t="shared" si="4"/>
         <v>3.1123809523809522</v>
       </c>
     </row>
@@ -2546,7 +3504,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="C67">
-        <f>$B$13+B67*$B$14</f>
+        <f t="shared" si="4"/>
         <v>3.1466666666666665</v>
       </c>
     </row>
@@ -2555,7 +3513,7 @@
         <v>5</v>
       </c>
       <c r="C68">
-        <f>$B$13+B68*$B$14</f>
+        <f t="shared" si="4"/>
         <v>3.1809523809523812</v>
       </c>
     </row>
@@ -2564,7 +3522,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C69">
-        <f>$B$13+B69*$B$14</f>
+        <f t="shared" si="4"/>
         <v>3.215238095238095</v>
       </c>
     </row>
@@ -2573,7 +3531,7 @@
         <v>5.2</v>
       </c>
       <c r="C70">
-        <f>$B$13+B70*$B$14</f>
+        <f t="shared" si="4"/>
         <v>3.2495238095238097</v>
       </c>
     </row>
@@ -2582,7 +3540,7 @@
         <v>5.3</v>
       </c>
       <c r="C71">
-        <f>$B$13+B71*$B$14</f>
+        <f t="shared" si="4"/>
         <v>3.2838095238095235</v>
       </c>
     </row>
@@ -2591,7 +3549,7 @@
         <v>5.4</v>
       </c>
       <c r="C72">
-        <f>$B$13+B72*$B$14</f>
+        <f t="shared" si="4"/>
         <v>3.3180952380952382</v>
       </c>
     </row>
@@ -2600,7 +3558,7 @@
         <v>5.5</v>
       </c>
       <c r="C73">
-        <f>$B$13+B73*$B$14</f>
+        <f t="shared" si="4"/>
         <v>3.352380952380952</v>
       </c>
     </row>
@@ -2609,7 +3567,7 @@
         <v>5.6</v>
       </c>
       <c r="C74">
-        <f>$B$13+B74*$B$14</f>
+        <f t="shared" si="4"/>
         <v>3.3866666666666667</v>
       </c>
     </row>
@@ -2618,7 +3576,7 @@
         <v>5.7</v>
       </c>
       <c r="C75">
-        <f>$B$13+B75*$B$14</f>
+        <f t="shared" si="4"/>
         <v>3.420952380952381</v>
       </c>
     </row>
@@ -2627,7 +3585,7 @@
         <v>5.8</v>
       </c>
       <c r="C76">
-        <f>$B$13+B76*$B$14</f>
+        <f t="shared" si="4"/>
         <v>3.4552380952380952</v>
       </c>
     </row>
@@ -2636,7 +3594,7 @@
         <v>5.9</v>
       </c>
       <c r="C77">
-        <f>$B$13+B77*$B$14</f>
+        <f t="shared" si="4"/>
         <v>3.4895238095238099</v>
       </c>
     </row>
@@ -2645,7 +3603,7 @@
         <v>6</v>
       </c>
       <c r="C78">
-        <f>$B$13+B78*$B$14</f>
+        <f t="shared" si="4"/>
         <v>3.5238095238095237</v>
       </c>
     </row>
@@ -2654,7 +3612,7 @@
         <v>6.1</v>
       </c>
       <c r="C79">
-        <f>$B$13+B79*$B$14</f>
+        <f t="shared" si="4"/>
         <v>3.5580952380952375</v>
       </c>
     </row>
@@ -2663,7 +3621,7 @@
         <v>6.2</v>
       </c>
       <c r="C80">
-        <f>$B$13+B80*$B$14</f>
+        <f t="shared" si="4"/>
         <v>3.5923809523809522</v>
       </c>
     </row>
@@ -2672,7 +3630,7 @@
         <v>6.3</v>
       </c>
       <c r="C81">
-        <f>$B$13+B81*$B$14</f>
+        <f t="shared" si="4"/>
         <v>3.6266666666666669</v>
       </c>
     </row>
@@ -2681,7 +3639,7 @@
         <v>6.4</v>
       </c>
       <c r="C82">
-        <f>$B$13+B82*$B$14</f>
+        <f t="shared" ref="C82:C113" si="5">$B$13+B82*$B$14</f>
         <v>3.6609523809523807</v>
       </c>
     </row>
@@ -2690,7 +3648,7 @@
         <v>6.5</v>
       </c>
       <c r="C83">
-        <f>$B$13+B83*$B$14</f>
+        <f t="shared" si="5"/>
         <v>3.6952380952380954</v>
       </c>
     </row>
@@ -2699,7 +3657,7 @@
         <v>6.6</v>
       </c>
       <c r="C84">
-        <f>$B$13+B84*$B$14</f>
+        <f t="shared" si="5"/>
         <v>3.7295238095238092</v>
       </c>
     </row>
@@ -2708,7 +3666,7 @@
         <v>6.7</v>
       </c>
       <c r="C85">
-        <f>$B$13+B85*$B$14</f>
+        <f t="shared" si="5"/>
         <v>3.7638095238095239</v>
       </c>
     </row>
@@ -2717,7 +3675,7 @@
         <v>6.8</v>
       </c>
       <c r="C86">
-        <f>$B$13+B86*$B$14</f>
+        <f t="shared" si="5"/>
         <v>3.7980952380952377</v>
       </c>
     </row>
@@ -2726,7 +3684,7 @@
         <v>6.9</v>
       </c>
       <c r="C87">
-        <f>$B$13+B87*$B$14</f>
+        <f t="shared" si="5"/>
         <v>3.8323809523809524</v>
       </c>
     </row>
@@ -2735,7 +3693,7 @@
         <v>7</v>
       </c>
       <c r="C88">
-        <f>$B$13+B88*$B$14</f>
+        <f t="shared" si="5"/>
         <v>3.8666666666666663</v>
       </c>
     </row>
@@ -2744,7 +3702,7 @@
         <v>7.1</v>
       </c>
       <c r="C89">
-        <f>$B$13+B89*$B$14</f>
+        <f t="shared" si="5"/>
         <v>3.9009523809523809</v>
       </c>
     </row>
@@ -2753,7 +3711,7 @@
         <v>7.2</v>
       </c>
       <c r="C90">
-        <f>$B$13+B90*$B$14</f>
+        <f t="shared" si="5"/>
         <v>3.9352380952380956</v>
       </c>
     </row>
@@ -2762,7 +3720,7 @@
         <v>7.3</v>
       </c>
       <c r="C91">
-        <f>$B$13+B91*$B$14</f>
+        <f t="shared" si="5"/>
         <v>3.9695238095238095</v>
       </c>
     </row>
@@ -2771,7 +3729,7 @@
         <v>7.4</v>
       </c>
       <c r="C92">
-        <f>$B$13+B92*$B$14</f>
+        <f t="shared" si="5"/>
         <v>4.0038095238095242</v>
       </c>
     </row>
@@ -2780,7 +3738,7 @@
         <v>7.5</v>
       </c>
       <c r="C93">
-        <f>$B$13+B93*$B$14</f>
+        <f t="shared" si="5"/>
         <v>4.038095238095238</v>
       </c>
     </row>
@@ -2789,7 +3747,7 @@
         <v>7.6</v>
       </c>
       <c r="C94">
-        <f>$B$13+B94*$B$14</f>
+        <f t="shared" si="5"/>
         <v>4.0723809523809518</v>
       </c>
     </row>
@@ -2798,7 +3756,7 @@
         <v>7.7</v>
       </c>
       <c r="C95">
-        <f>$B$13+B95*$B$14</f>
+        <f t="shared" si="5"/>
         <v>4.1066666666666665</v>
       </c>
     </row>
@@ -2807,7 +3765,7 @@
         <v>7.8</v>
       </c>
       <c r="C96">
-        <f>$B$13+B96*$B$14</f>
+        <f t="shared" si="5"/>
         <v>4.1409523809523812</v>
       </c>
     </row>
@@ -2816,7 +3774,7 @@
         <v>7.9</v>
       </c>
       <c r="C97">
-        <f>$B$13+B97*$B$14</f>
+        <f t="shared" si="5"/>
         <v>4.175238095238095</v>
       </c>
     </row>
@@ -2825,7 +3783,7 @@
         <v>8</v>
       </c>
       <c r="C98">
-        <f>$B$13+B98*$B$14</f>
+        <f t="shared" si="5"/>
         <v>4.2095238095238097</v>
       </c>
     </row>
@@ -2858,7 +3816,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2885,6 +3843,9 @@
       <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="J1" t="s">
         <v>12</v>
       </c>
@@ -2945,7 +3906,7 @@
         <v>0.04</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F30" si="0">E3-B3</f>
+        <f t="shared" ref="F3:F28" si="0">E3-B3</f>
         <v>-1.96</v>
       </c>
       <c r="H3" s="1">
@@ -2968,11 +3929,11 @@
         <v>2.9600000000000001E-2</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D29" si="2">D3-$H$3*F3*A3</f>
+        <f t="shared" ref="D4:D28" si="2">D3-$H$3*F3*A3</f>
         <v>6.88E-2</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E29" si="3">C4+A4*D4</f>
+        <f t="shared" ref="E4:E28" si="3">C4+A4*D4</f>
         <v>0.16720000000000002</v>
       </c>
       <c r="F4" s="1">
@@ -2992,7 +3953,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C4:C29" si="4">C4-$H$3*F4</f>
+        <f t="shared" ref="C5:C28" si="4">C4-$H$3*F4</f>
         <v>5.7928E-2</v>
       </c>
       <c r="D5" s="1">
@@ -3004,7 +3965,7 @@
         <v>0.55975200000000003</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="0"/>
+        <f>E5-B5</f>
         <v>-2.440248</v>
       </c>
       <c r="J5">
@@ -3063,11 +4024,20 @@
         <f t="shared" si="0"/>
         <v>-3.6227649799999999</v>
       </c>
+      <c r="G7" s="1">
+        <f>SQRT(SUMSQ(F2:F7)/6)</f>
+        <v>2.3195240391401568</v>
+      </c>
       <c r="J7">
         <f t="shared" si="1"/>
         <v>2.8497279574275622</v>
       </c>
     </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1</v>
@@ -3187,6 +4157,12 @@
         <f t="shared" si="0"/>
         <v>1.3577046492583715</v>
       </c>
+      <c r="I13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -3211,6 +4187,24 @@
         <f t="shared" si="0"/>
         <v>-2.5957808859361227</v>
       </c>
+      <c r="G14" s="1">
+        <f>SQRT(SUMSQ(F9:F14)/6)</f>
+        <v>1.5045212661287681</v>
+      </c>
+      <c r="I14" s="4">
+        <v>6</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2.3195240391401568</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I15" s="4">
+        <v>12</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1.5045212661287681</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -3235,8 +4229,14 @@
         <f t="shared" si="0"/>
         <v>-0.24457329265554295</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I16" s="4">
+        <v>18</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1.4119882700137136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -3259,8 +4259,14 @@
         <f t="shared" si="0"/>
         <v>-7.2942642417915149E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I17" s="4">
+        <v>24</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1.4076245764674005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -3284,7 +4290,7 @@
         <v>-1.6512062496409194</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>4</v>
       </c>
@@ -3308,7 +4314,7 @@
         <v>-0.33148194424364474</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>6</v>
       </c>
@@ -3332,7 +4338,7 @@
         <v>1.9885525347324955</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>5</v>
       </c>
@@ -3355,8 +4361,12 @@
         <f t="shared" si="0"/>
         <v>-2.2597400252619386</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" s="1">
+        <f>SQRT(SUMSQ(F16:F21)/6)</f>
+        <v>1.4119882700137136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -3380,7 +4390,7 @@
         <v>-0.17426811231986405</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>3</v>
       </c>
@@ -3404,7 +4414,7 @@
         <v>8.3732858985944958E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>2</v>
       </c>
@@ -3428,7 +4438,7 @@
         <v>-1.5493862456727769</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>4</v>
       </c>
@@ -3452,7 +4462,7 @@
         <v>-0.16044984604197188</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>6</v>
       </c>
@@ -3476,7 +4486,7 @@
         <v>2.1911297028156875</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>5</v>
       </c>
@@ -3499,8 +4509,13 @@
         <f t="shared" si="0"/>
         <v>-2.1502720425724378</v>
       </c>
+      <c r="G28" s="1">
+        <f>SQRT(SUMSQ(F23:F28)/6)</f>
+        <v>1.4076245764674005</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ut3/PDs/UT03-TA1/UT3-TA1.xlsx
+++ b/ut3/PDs/UT03-TA1/UT3-TA1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Federico\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Federico\Documents\GitHub\Machine-Learning-Portfolio\ut3\PDs\UT03-TA1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94B683BB-7F5E-4D04-BBAD-D9FC311754F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2879F4C-CBE1-4E3D-B0AB-8242D98220B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{1FF1BBC3-D289-4B94-BAFE-9A492678760C}"/>
+    <workbookView xWindow="2928" yWindow="2928" windowWidth="17028" windowHeight="9564" activeTab="1" xr2:uid="{1FF1BBC3-D289-4B94-BAFE-9A492678760C}"/>
   </bookViews>
   <sheets>
     <sheet name="ej1" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>X</t>
   </si>
@@ -103,12 +103,6 @@
   <si>
     <t>alpha</t>
   </si>
-  <si>
-    <t>x`</t>
-  </si>
-  <si>
-    <t>iteración</t>
-  </si>
 </sst>
 </file>
 
@@ -131,39 +125,10 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -172,18 +137,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1080,25 +1036,25 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ej2'!$J$13</c:f>
+              <c:f>'ej2'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RMSE</c:v>
+                  <c:v>error</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1107,66 +1063,93 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:val>
             <c:numRef>
-              <c:f>'ej2'!$I$14:$I$17</c:f>
+              <c:f>'ej2'!$F$2:$F$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>-1.96</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>-2.8327999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24</c:v>
+                  <c:v>-2.440248</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.57927399999999984</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.6227649799999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.43668852120000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.54129976235199995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.94673627319936</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.85239703444629766</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3577046492583715</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.5957808859361227</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.24457329265554295</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-7.2942642417915149E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.6512062496409194</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.33148194424364474</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9885525347324955</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.2597400252619386</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.17426811231986405</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.3732858985944958E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.5493862456727769</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.16044984604197188</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.1911297028156875</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2.1502720425724378</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'ej2'!$J$14:$J$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.3195240391401568</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5045212661287681</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.4119882700137136</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.4076245764674005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-99F0-4802-806D-A3CC1AE80311}"/>
+              <c16:uniqueId val="{00000000-BF5C-440A-83B1-150F573929BE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1178,31 +1161,17 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1363014096"/>
-        <c:axId val="1363014928"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1363014096"/>
+        <c:smooth val="0"/>
+        <c:axId val="1939419775"/>
+        <c:axId val="1939420191"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1939419775"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1211,8 +1180,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1239,12 +1208,15 @@
             <a:endParaRPr lang="es-UY"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1363014928"/>
+        <c:crossAx val="1939420191"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="1363014928"/>
+        <c:axId val="1939420191"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1270,14 +1242,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1301,9 +1267,9 @@
             <a:endParaRPr lang="es-UY"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1363014096"/>
+        <c:crossAx val="1939419775"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1315,6 +1281,13 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1947,7 +1920,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1974,8 +1947,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2055,6 +2028,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -2065,6 +2043,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -2076,7 +2059,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2096,6 +2079,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2108,10 +2094,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2151,23 +2137,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2272,8 +2257,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2405,20 +2390,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2432,17 +2416,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2507,23 +2480,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>4483</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>156883</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>291352</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>309283</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>31377</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>596152</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A907FA8-7852-4D7D-AA13-89CFEE1DBED1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F1F419E-0F69-49B2-B354-21A5CA2C8AD4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2844,7 +2817,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3639,7 +3612,7 @@
         <v>6.4</v>
       </c>
       <c r="C82">
-        <f t="shared" ref="C82:C113" si="5">$B$13+B82*$B$14</f>
+        <f t="shared" ref="C82:C98" si="5">$B$13+B82*$B$14</f>
         <v>3.6609523809523807</v>
       </c>
     </row>
@@ -3813,18 +3786,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{110D3D34-C80E-484A-AA61-1DEEBCFCEA01}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="8" width="8.88671875" style="1"/>
+    <col min="1" max="7" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3843,17 +3816,14 @@
       <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3874,19 +3844,19 @@
         <f>E2-B2</f>
         <v>-1</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J2">
-        <f>$C$28+$D$28*A2</f>
+      <c r="H2">
+        <f>$C$25+$D$25*A2</f>
         <v>0.72699293604227921</v>
       </c>
-      <c r="K2" cm="1">
-        <f t="array" ref="K2">SQRT(SUMSQ(B2:B7-J2:J7)/6)</f>
+      <c r="I2" cm="1">
+        <f t="array" ref="I2">SQRT(SUMSQ(B2:B7-H2:H7)/6)</f>
         <v>1.3005077099450286</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -3894,11 +3864,11 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <f>C2-$H$3*F2</f>
+        <f>C2-$G$3*F2</f>
         <v>0.01</v>
       </c>
       <c r="D3" s="1">
-        <f>D2-$H$3*F2*A2</f>
+        <f>D2-$G$3*F2*A2</f>
         <v>0.01</v>
       </c>
       <c r="E3" s="1">
@@ -3906,18 +3876,18 @@
         <v>0.04</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F28" si="0">E3-B3</f>
+        <f t="shared" ref="F3:F25" si="0">E3-B3</f>
         <v>-1.96</v>
       </c>
-      <c r="H3" s="1">
+      <c r="G3" s="1">
         <v>0.01</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J7" si="1">$C$28+$D$28*A3</f>
+      <c r="H3">
+        <f>$C$25+$D$25*A3</f>
         <v>1.7883604467349206</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3925,27 +3895,27 @@
         <v>3</v>
       </c>
       <c r="C4" s="1">
-        <f>C3-$H$3*F3</f>
+        <f>C3-$G$3*F3</f>
         <v>2.9600000000000001E-2</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D28" si="2">D3-$H$3*F3*A3</f>
+        <f t="shared" ref="D4:D26" si="1">D3-$G$3*F3*A3</f>
         <v>6.88E-2</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E28" si="3">C4+A4*D4</f>
+        <f t="shared" ref="E4:E25" si="2">C4+A4*D4</f>
         <v>0.16720000000000002</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" si="0"/>
+        <f>E4-B4</f>
         <v>-2.8327999999999998</v>
       </c>
-      <c r="J4">
-        <f t="shared" si="1"/>
+      <c r="H4">
+        <f>$C$25+$D$25*A4</f>
         <v>1.2576766913885999</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3953,27 +3923,27 @@
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C28" si="4">C4-$H$3*F4</f>
+        <f t="shared" ref="C5:C26" si="3">C4-$G$3*F4</f>
         <v>5.7928E-2</v>
       </c>
       <c r="D5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.12545600000000001</v>
+      </c>
+      <c r="E5" s="1">
         <f t="shared" si="2"/>
-        <v>0.12545600000000001</v>
-      </c>
-      <c r="E5" s="1">
-        <f t="shared" si="3"/>
         <v>0.55975200000000003</v>
       </c>
       <c r="F5" s="1">
         <f>E5-B5</f>
         <v>-2.440248</v>
       </c>
-      <c r="J5">
-        <f t="shared" si="1"/>
+      <c r="H5">
+        <f>$C$25+$D$25*A5</f>
         <v>2.3190442020812414</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -3981,27 +3951,27 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>8.2330479999999998E-2</v>
       </c>
       <c r="D6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.22306592000000003</v>
+      </c>
+      <c r="E6" s="1">
         <f t="shared" si="2"/>
-        <v>0.22306592000000003</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" si="3"/>
         <v>1.4207260000000002</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
         <v>-0.57927399999999984</v>
       </c>
-      <c r="J6">
-        <f t="shared" si="1"/>
+      <c r="H6">
+        <f>$C$25+$D$25*A6</f>
         <v>3.3804117127738826</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4009,509 +3979,466 @@
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>8.8123220000000002E-2</v>
       </c>
       <c r="D7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25782236000000003</v>
+      </c>
+      <c r="E7" s="1">
         <f t="shared" si="2"/>
-        <v>0.25782236000000003</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="3"/>
         <v>1.3772350200000001</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
         <v>-3.6227649799999999</v>
       </c>
-      <c r="G7" s="1">
-        <f>SQRT(SUMSQ(F2:F7)/6)</f>
-        <v>2.3195240391401568</v>
-      </c>
-      <c r="J7">
+      <c r="H7">
+        <f>$C$25+$D$25*A7</f>
+        <v>2.8497279574275622</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <f>C7-$G$3*F7</f>
+        <v>0.1243508698</v>
+      </c>
+      <c r="D8" s="1">
+        <f>D7-$G$3*F7*A7</f>
+        <v>0.438960609</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="2"/>
+        <v>0.56331147879999999</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.43668852120000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="3"/>
+        <v>0.128717755012</v>
+      </c>
+      <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>2.8497279574275622</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <f>C7-$H$3*F7</f>
-        <v>0.1243508698</v>
-      </c>
-      <c r="D9" s="1">
-        <f>D7-$H$3*F7*A7</f>
-        <v>0.438960609</v>
+        <v>0.44332749421200002</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="3"/>
-        <v>0.56331147879999999</v>
+        <f t="shared" si="2"/>
+        <v>1.4587002376480001</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>-0.43668852120000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-0.54129976235199995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1">
         <v>3</v>
       </c>
-      <c r="B10" s="1">
-        <v>2</v>
-      </c>
       <c r="C10" s="1">
-        <f t="shared" si="4"/>
-        <v>0.128717755012</v>
+        <f t="shared" si="3"/>
+        <v>0.13413075263551999</v>
       </c>
       <c r="D10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.45956648708256004</v>
+      </c>
+      <c r="E10" s="1">
         <f t="shared" si="2"/>
-        <v>0.44332749421200002</v>
-      </c>
-      <c r="E10" s="1">
-        <f t="shared" si="3"/>
-        <v>1.4587002376480001</v>
+        <v>1.05326372680064</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>-0.54129976235199995</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-1.94673627319936</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1">
         <v>3</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="4"/>
-        <v>0.13413075263551999</v>
+        <f t="shared" si="3"/>
+        <v>0.15359811536751358</v>
       </c>
       <c r="D11" s="1">
+        <f t="shared" si="1"/>
+        <v>0.49850121254654722</v>
+      </c>
+      <c r="E11" s="1">
         <f t="shared" si="2"/>
-        <v>0.45956648708256004</v>
-      </c>
-      <c r="E11" s="1">
-        <f t="shared" si="3"/>
-        <v>1.05326372680064</v>
+        <v>2.1476029655537023</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>-1.94673627319936</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-0.85239703444629766</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="4"/>
-        <v>0.15359811536751358</v>
+        <f t="shared" si="3"/>
+        <v>0.16212208571197656</v>
       </c>
       <c r="D12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.53259709392439913</v>
+      </c>
+      <c r="E12" s="1">
         <f t="shared" si="2"/>
-        <v>0.49850121254654722</v>
-      </c>
-      <c r="E12" s="1">
-        <f t="shared" si="3"/>
-        <v>2.1476029655537023</v>
+        <v>3.3577046492583715</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>-0.85239703444629766</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.3577046492583715</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="4"/>
-        <v>0.16212208571197656</v>
+        <f t="shared" si="3"/>
+        <v>0.14854503921939285</v>
       </c>
       <c r="D13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.45113481496889685</v>
+      </c>
+      <c r="E13" s="1">
         <f t="shared" si="2"/>
-        <v>0.53259709392439913</v>
-      </c>
-      <c r="E13" s="1">
-        <f t="shared" si="3"/>
-        <v>3.3577046492583715</v>
+        <v>2.4042191140638773</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>1.3577046492583715</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-2.5957808859361227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B14" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="4"/>
-        <v>0.14854503921939285</v>
+        <f>C13-$G$3*F13</f>
+        <v>0.17450284807875407</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="2"/>
-        <v>0.45113481496889685</v>
+        <f>D13-$G$3*F13*A13</f>
+        <v>0.580923859265703</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="3"/>
-        <v>2.4042191140638773</v>
+        <f>C14+A14*D14</f>
+        <v>0.75542670734445705</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>-2.5957808859361227</v>
-      </c>
-      <c r="G14" s="1">
-        <f>SQRT(SUMSQ(F9:F14)/6)</f>
-        <v>1.5045212661287681</v>
-      </c>
-      <c r="I14" s="4">
-        <v>6</v>
-      </c>
-      <c r="J14" s="1">
-        <v>2.3195240391401568</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I15" s="4">
-        <v>12</v>
-      </c>
-      <c r="J15" s="1">
-        <v>1.5045212661287681</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-0.24457329265554295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="3"/>
+        <v>0.1769485810053095</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="1"/>
+        <v>0.58336959219225848</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="2"/>
+        <v>1.9270573575820849</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>-7.2942642417915149E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C16" s="1">
-        <f>C14-$H$3*F14</f>
-        <v>0.17450284807875407</v>
+        <f t="shared" si="3"/>
+        <v>0.17767800742948864</v>
       </c>
       <c r="D16" s="1">
-        <f>D14-$H$3*F14*A14</f>
-        <v>0.580923859265703</v>
+        <f t="shared" si="1"/>
+        <v>0.58555787146479599</v>
       </c>
       <c r="E16" s="1">
-        <f>C16+A16*D16</f>
-        <v>0.75542670734445705</v>
+        <f t="shared" si="2"/>
+        <v>1.3487937503590806</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>-0.24457329265554295</v>
-      </c>
-      <c r="I16" s="4">
-        <v>18</v>
-      </c>
-      <c r="J16" s="1">
-        <v>1.4119882700137136</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+        <v>-1.6512062496409194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1">
         <v>3</v>
       </c>
-      <c r="B17" s="1">
-        <v>2</v>
-      </c>
       <c r="C17" s="1">
-        <f t="shared" si="4"/>
-        <v>0.1769485810053095</v>
+        <f t="shared" si="3"/>
+        <v>0.19419006992589782</v>
       </c>
       <c r="D17" s="1">
+        <f t="shared" si="1"/>
+        <v>0.61858199645761436</v>
+      </c>
+      <c r="E17" s="1">
         <f t="shared" si="2"/>
-        <v>0.58336959219225848</v>
-      </c>
-      <c r="E17" s="1">
-        <f t="shared" si="3"/>
-        <v>1.9270573575820849</v>
+        <v>2.6685180557563553</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="0"/>
-        <v>-7.2942642417915149E-2</v>
-      </c>
-      <c r="I17" s="4">
-        <v>24</v>
-      </c>
-      <c r="J17" s="1">
-        <v>1.4076245764674005</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+        <v>-0.33148194424364474</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1">
         <v>2</v>
       </c>
-      <c r="B18" s="1">
-        <v>3</v>
-      </c>
       <c r="C18" s="1">
-        <f t="shared" si="4"/>
-        <v>0.17767800742948864</v>
+        <f t="shared" si="3"/>
+        <v>0.19750488936833427</v>
       </c>
       <c r="D18" s="1">
+        <f t="shared" si="1"/>
+        <v>0.63184127422736014</v>
+      </c>
+      <c r="E18" s="1">
         <f t="shared" si="2"/>
-        <v>0.58555787146479599</v>
-      </c>
-      <c r="E18" s="1">
-        <f t="shared" si="3"/>
-        <v>1.3487937503590806</v>
+        <v>3.9885525347324955</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
-        <v>-1.6512062496409194</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1.9885525347324955</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B19" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="4"/>
-        <v>0.19419006992589782</v>
+        <f t="shared" si="3"/>
+        <v>0.17761936402100931</v>
       </c>
       <c r="D19" s="1">
+        <f t="shared" si="1"/>
+        <v>0.51252812214341037</v>
+      </c>
+      <c r="E19" s="1">
         <f t="shared" si="2"/>
-        <v>0.61858199645761436</v>
-      </c>
-      <c r="E19" s="1">
-        <f t="shared" si="3"/>
-        <v>2.6685180557563553</v>
+        <v>2.7402599747380614</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
-        <v>-0.33148194424364474</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+        <v>-2.2597400252619386</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="4"/>
-        <v>0.19750488936833427</v>
+        <f>C19-$G$3*F19</f>
+        <v>0.20021676427362869</v>
       </c>
       <c r="D20" s="1">
+        <f>D19-$G$3*F19*A19</f>
+        <v>0.62551512340650728</v>
+      </c>
+      <c r="E20" s="1">
         <f t="shared" si="2"/>
-        <v>0.63184127422736014</v>
-      </c>
-      <c r="E20" s="1">
-        <f t="shared" si="3"/>
-        <v>3.9885525347324955</v>
+        <v>0.82573188768013595</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>1.9885525347324955</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+        <v>-0.17426811231986405</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B21" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="4"/>
-        <v>0.17761936402100931</v>
+        <f t="shared" si="3"/>
+        <v>0.20195944539682734</v>
       </c>
       <c r="D21" s="1">
+        <f t="shared" si="1"/>
+        <v>0.62725780452970592</v>
+      </c>
+      <c r="E21" s="1">
         <f t="shared" si="2"/>
-        <v>0.51252812214341037</v>
-      </c>
-      <c r="E21" s="1">
-        <f t="shared" si="3"/>
-        <v>2.7402599747380614</v>
+        <v>2.083732858985945</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
-        <v>-2.2597400252619386</v>
-      </c>
-      <c r="G21" s="1">
-        <f>SQRT(SUMSQ(F16:F21)/6)</f>
-        <v>1.4119882700137136</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+        <v>8.3732858985944958E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>2</v>
+      </c>
+      <c r="B22" s="1">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="3"/>
+        <v>0.2011221168069679</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="1"/>
+        <v>0.62474581876012758</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="2"/>
+        <v>1.4506137543272231</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.5493862456727769</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C23" s="1">
-        <f>C21-$H$3*F21</f>
-        <v>0.20021676427362869</v>
+        <f t="shared" si="3"/>
+        <v>0.21661597926369566</v>
       </c>
       <c r="D23" s="1">
-        <f>D21-$H$3*F21*A21</f>
-        <v>0.62551512340650728</v>
+        <f t="shared" si="1"/>
+        <v>0.65573354367358316</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="3"/>
-        <v>0.82573188768013595</v>
+        <f t="shared" si="2"/>
+        <v>2.8395501539580281</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="0"/>
-        <v>-0.17426811231986405</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+        <v>-0.16044984604197188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B24" s="1">
         <v>2</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="4"/>
-        <v>0.20195944539682734</v>
+        <f t="shared" si="3"/>
+        <v>0.21822047772411537</v>
       </c>
       <c r="D24" s="1">
+        <f t="shared" si="1"/>
+        <v>0.66215153751526201</v>
+      </c>
+      <c r="E24" s="1">
         <f t="shared" si="2"/>
-        <v>0.62725780452970592</v>
-      </c>
-      <c r="E24" s="1">
-        <f t="shared" si="3"/>
-        <v>2.083732858985945</v>
+        <v>4.1911297028156875</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
-        <v>8.3732858985944958E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2.1911297028156875</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B25" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="4"/>
-        <v>0.2011221168069679</v>
+        <f t="shared" si="3"/>
+        <v>0.19630918069595849</v>
       </c>
       <c r="D25" s="1">
+        <f t="shared" si="1"/>
+        <v>0.53068375534632073</v>
+      </c>
+      <c r="E25" s="1">
         <f t="shared" si="2"/>
-        <v>0.62474581876012758</v>
-      </c>
-      <c r="E25" s="1">
-        <f t="shared" si="3"/>
-        <v>1.4506137543272231</v>
+        <v>2.8497279574275622</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="0"/>
-        <v>-1.5493862456727769</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>4</v>
-      </c>
-      <c r="B26" s="1">
-        <v>3</v>
-      </c>
+        <v>-2.1502720425724378</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" s="1">
-        <f t="shared" si="4"/>
-        <v>0.21661597926369566</v>
+        <f t="shared" si="3"/>
+        <v>0.21781190112168286</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="2"/>
-        <v>0.65573354367358316</v>
-      </c>
-      <c r="E26" s="1">
-        <f t="shared" si="3"/>
-        <v>2.8395501539580281</v>
-      </c>
-      <c r="F26" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.16044984604197188</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>6</v>
-      </c>
-      <c r="B27" s="1">
-        <v>2</v>
-      </c>
-      <c r="C27" s="1">
-        <f t="shared" si="4"/>
-        <v>0.21822047772411537</v>
-      </c>
-      <c r="D27" s="1">
-        <f t="shared" si="2"/>
-        <v>0.66215153751526201</v>
-      </c>
-      <c r="E27" s="1">
-        <f t="shared" si="3"/>
-        <v>4.1911297028156875</v>
-      </c>
-      <c r="F27" s="1">
-        <f t="shared" si="0"/>
-        <v>2.1911297028156875</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>5</v>
-      </c>
-      <c r="B28" s="1">
-        <v>5</v>
-      </c>
-      <c r="C28" s="1">
-        <f t="shared" si="4"/>
-        <v>0.19630918069595849</v>
-      </c>
-      <c r="D28" s="1">
-        <f t="shared" si="2"/>
-        <v>0.53068375534632073</v>
-      </c>
-      <c r="E28" s="1">
-        <f t="shared" si="3"/>
-        <v>2.8497279574275622</v>
-      </c>
-      <c r="F28" s="1">
-        <f t="shared" si="0"/>
-        <v>-2.1502720425724378</v>
-      </c>
-      <c r="G28" s="1">
-        <f>SQRT(SUMSQ(F23:F28)/6)</f>
-        <v>1.4076245764674005</v>
+        <f t="shared" si="1"/>
+        <v>0.63819735747494266</v>
       </c>
     </row>
   </sheetData>
